--- a/Integer/A-kształtna/A-kształtna.xlsx
+++ b/Integer/A-kształtna/A-kształtna.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Ilość elementów</t>
   </si>
@@ -29,12 +29,21 @@
   <si>
     <t>QuickSort (rekurencyjnie)</t>
   </si>
+  <si>
+    <t>Losowy</t>
+  </si>
+  <si>
+    <t>Skrajnie prawy</t>
+  </si>
+  <si>
+    <t>Środkowy</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,16 +51,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -59,14 +103,166 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1536,10 +1732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:E17"/>
+  <dimension ref="C1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34:F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1552,184 +1748,426 @@
     <col min="8" max="8" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
+    <row r="1" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C3" s="1">
+    <row r="3" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="5">
         <v>50000</v>
       </c>
       <c r="D3" s="1">
         <v>3.5699999999999998E-3</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>3.7699999999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="1">
+    <row r="4" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="5">
         <v>60000</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>4.5900000000000003E-3</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>4.1999999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="1">
+    <row r="5" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="5">
         <v>70000</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>5.13E-3</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>4.5500000000000002E-3</v>
       </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="1">
+    <row r="6" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="5">
         <v>80000</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>4.9699999999999996E-3</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="1">
+    <row r="7" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="5">
         <v>90000</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>7.2100000000000003E-3</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>5.8399999999999997E-3</v>
       </c>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="1">
+    <row r="8" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="5">
         <v>100000</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <v>8.43E-3</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>6.7499999999999999E-3</v>
       </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="1">
+    <row r="9" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="5">
         <v>110000</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="3">
         <v>8.7899999999999992E-3</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <v>7.7799999999999996E-3</v>
       </c>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="1">
+    <row r="10" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="5">
         <v>120000</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="3">
         <v>9.2200000000000008E-3</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>8.2500000000000004E-3</v>
       </c>
     </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="1">
+    <row r="11" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="5">
         <v>130000</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="3">
         <v>0.01</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <v>9.7800000000000005E-3</v>
       </c>
     </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="1">
+    <row r="12" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="5">
         <v>140000</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="3">
         <v>1.1690000000000001E-2</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="4">
         <v>1.0120000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="1">
+    <row r="13" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="5">
         <v>150000</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="3">
         <v>1.2630000000000001E-2</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <v>1.039E-2</v>
       </c>
     </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="1">
+    <row r="14" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="5">
         <v>160000</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="3">
         <v>1.278E-2</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="4">
         <v>1.106E-2</v>
       </c>
     </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="1">
+    <row r="15" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="5">
         <v>170000</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="3">
         <v>1.3010000000000001E-2</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="4">
         <v>1.2330000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="1">
+    <row r="16" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="5">
         <v>180000</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="3">
         <v>1.4120000000000001E-2</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="4">
         <v>1.383E-2</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="1">
+    <row r="17" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="12">
         <v>190000</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="3">
         <v>1.5010000000000001E-2</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="4">
         <v>1.4760000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="10">
+        <v>50000</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1.6215851121001199E-2</v>
+      </c>
+      <c r="E35" s="7">
+        <v>2.8864214995382099E-2</v>
+      </c>
+      <c r="F35" s="7">
+        <v>1.3459156430431E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="11">
+        <v>60000</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1.9151882200354998E-2</v>
+      </c>
+      <c r="E36" s="7">
+        <v>3.40903503166319E-2</v>
+      </c>
+      <c r="F36" s="7">
+        <v>1.58960622262946E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="11">
+        <v>70000</v>
+      </c>
+      <c r="D37" s="7">
+        <v>2.7262223222999999E-2</v>
+      </c>
+      <c r="E37" s="7">
+        <v>4.852675733694E-2</v>
+      </c>
+      <c r="F37" s="7">
+        <v>2.2627645275090001E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="11">
+        <v>80000</v>
+      </c>
+      <c r="D38" s="7">
+        <v>3.0214741849549399E-2</v>
+      </c>
+      <c r="E38" s="7">
+        <v>5.3782240492197902E-2</v>
+      </c>
+      <c r="F38" s="7">
+        <v>2.5078235735125999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="11">
+        <v>90000</v>
+      </c>
+      <c r="D39" s="7">
+        <v>3.1658948484121298E-2</v>
+      </c>
+      <c r="E39" s="7">
+        <v>5.6352928301735897E-2</v>
+      </c>
+      <c r="F39" s="7">
+        <v>2.6276927241820701E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="11">
+        <v>100000</v>
+      </c>
+      <c r="D40" s="7">
+        <v>3.7122325600012003E-2</v>
+      </c>
+      <c r="E40" s="7">
+        <v>6.6077739568021404E-2</v>
+      </c>
+      <c r="F40" s="7">
+        <v>3.0811530248010002E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="11">
+        <v>110000</v>
+      </c>
+      <c r="D41" s="7">
+        <v>3.9141781494656497E-2</v>
+      </c>
+      <c r="E41" s="7">
+        <v>6.9672371060488597E-2</v>
+      </c>
+      <c r="F41" s="7">
+        <v>3.2487678640564899E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="11">
+        <v>120000</v>
+      </c>
+      <c r="D42" s="7">
+        <v>4.4624845415101103E-2</v>
+      </c>
+      <c r="E42" s="7">
+        <v>7.9432224838880003E-2</v>
+      </c>
+      <c r="F42" s="7">
+        <v>3.7038621694533903E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="11">
+        <v>130000</v>
+      </c>
+      <c r="D43" s="7">
+        <v>5.1515189126323198E-2</v>
+      </c>
+      <c r="E43" s="7">
+        <v>9.1697036644855304E-2</v>
+      </c>
+      <c r="F43" s="7">
+        <v>4.2757606974848303E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="11">
+        <v>140000</v>
+      </c>
+      <c r="D44" s="7">
+        <v>5.2151811513319997E-2</v>
+      </c>
+      <c r="E44" s="7">
+        <v>9.2830224493709604E-2</v>
+      </c>
+      <c r="F44" s="7">
+        <v>4.3286003556055601E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="11">
+        <v>150000</v>
+      </c>
+      <c r="D45" s="7">
+        <v>5.5251841849852601E-2</v>
+      </c>
+      <c r="E45" s="7">
+        <v>9.8348278492737598E-2</v>
+      </c>
+      <c r="F45" s="7">
+        <v>4.5859028735377699E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="11">
+        <v>160000</v>
+      </c>
+      <c r="D46" s="7">
+        <v>5.9251929623232197E-2</v>
+      </c>
+      <c r="E46" s="7">
+        <v>0.10546843472935299</v>
+      </c>
+      <c r="F46" s="7">
+        <v>4.9179101587282698E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="11">
+        <v>170000</v>
+      </c>
+      <c r="D47" s="7">
+        <v>6.2147448495232002E-2</v>
+      </c>
+      <c r="E47" s="7">
+        <v>0.110622458321513</v>
+      </c>
+      <c r="F47" s="7">
+        <v>5.1582382251042599E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="11">
+        <v>180000</v>
+      </c>
+      <c r="D48" s="7">
+        <v>6.9151223223222494E-2</v>
+      </c>
+      <c r="E48" s="7">
+        <v>0.123089177337336</v>
+      </c>
+      <c r="F48" s="7">
+        <v>5.73955152752747E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="11">
+        <v>190000</v>
+      </c>
+      <c r="D49" s="7">
+        <v>7.0151818154151196E-2</v>
+      </c>
+      <c r="E49" s="7">
+        <v>0.124870236314389</v>
+      </c>
+      <c r="F49" s="7">
+        <v>5.8226009067945499E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="11">
+        <v>200000</v>
+      </c>
+      <c r="D50" s="7">
+        <v>7.21518184512E-2</v>
+      </c>
+      <c r="E50" s="7">
+        <v>0.12843023684313601</v>
+      </c>
+      <c r="F50" s="7">
+        <v>5.9886009314496003E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>